--- a/data/Excel/KRÜ_Esports_and_100_Thieves_stats.xlsx
+++ b/data/Excel/KRÜ_Esports_and_100_Thieves_stats.xlsx
@@ -477,22 +477,22 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
+          <t>Icebox</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Split</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>Icebox</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Split</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
@@ -596,42 +596,42 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O5" s="3" t="n">
@@ -674,42 +674,42 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O6" s="3" t="n">
@@ -752,42 +752,42 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O7" s="3" t="n">
@@ -830,22 +830,22 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
@@ -880,12 +880,12 @@
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O8" s="3" t="n">
@@ -918,12 +918,12 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr">
@@ -1002,28 +1002,32 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>0</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M10" s="3" t="n">
@@ -1034,12 +1038,12 @@
       </c>
       <c r="O10" s="3" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1072,28 +1076,32 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>0</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M11" s="3" t="n">
@@ -1104,12 +1112,12 @@
       </c>
       <c r="O11" s="3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P11" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1142,28 +1150,32 @@
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>0</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M12" s="3" t="n">
@@ -1174,12 +1186,12 @@
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1224,32 @@
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>0</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M13" s="3" t="n">
@@ -1244,12 +1260,12 @@
       </c>
       <c r="O13" s="3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1266,60 +1282,68 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
     </row>
